--- a/result_files/final_result_dataAug_T_lapras_ST3_NT1.xlsx
+++ b/result_files/final_result_dataAug_T_lapras_ST3_NT1.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9666666666666668</v>
+        <v>0.954043392504931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0328160912474523</v>
+        <v>0.02019987732393777</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9402366863905325</v>
+        <v>0.8860453648915186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02100244436109529</v>
+        <v>0.07234400031150691</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9853057199211046</v>
+        <v>0.9245069033530573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01406976779888959</v>
+        <v>0.09671118753893371</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8381656804733728</v>
+        <v>0.777120315581854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0618299939661483</v>
+        <v>0.09861735698224811</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9308062130177515</v>
+        <v>0.892455621301775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06024167633523905</v>
+        <v>0.04702705532228531</v>
       </c>
     </row>
   </sheetData>
